--- a/titanic20.xlsx
+++ b/titanic20.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -30,118 +33,70 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Braund, Mr. Owen Harris</t>
+    <t>Harris</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>Cumings, Mrs. John Bradley (Florence Briggs Thayer)</t>
+    <t>Bradley</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
-    <t>Heikkinen, Miss. Laina</t>
-  </si>
-  <si>
-    <t>Futrelle, Mrs. Jacques Heath (Lily May Peel)</t>
-  </si>
-  <si>
-    <t>Allen, Mr. William Henry</t>
-  </si>
-  <si>
-    <t>Moran, Mr. James</t>
-  </si>
-  <si>
-    <t>McCarthy, Mr. Timothy J</t>
-  </si>
-  <si>
-    <t>Palsson, Master. Gosta Leonard</t>
-  </si>
-  <si>
-    <t>Johnson, Mrs. Oscar W (Elisabeth Vilhelmina Berg)</t>
-  </si>
-  <si>
-    <t>Nasser, Mrs. Nicholas (Adele Achem)</t>
-  </si>
-  <si>
-    <t>Sandstrom, Miss. Marguerite Rut</t>
-  </si>
-  <si>
-    <t>Bonnell, Miss. Elizabeth</t>
-  </si>
-  <si>
-    <t>Saundercock, Mr. William Henry</t>
-  </si>
-  <si>
-    <t>Andersson, Mr. Anders Johan</t>
-  </si>
-  <si>
-    <t>Vestrom, Miss. Hulda Amanda Adolfina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hewlett, Mrs. (Mary D Kingcome) </t>
-  </si>
-  <si>
-    <t>Rice, Master. Eugene</t>
-  </si>
-  <si>
-    <t>Williams, Mr. Charles Eugene</t>
-  </si>
-  <si>
-    <t>Vander Planke, Mrs. Julius (Emelia Maria Vandemoortele)</t>
-  </si>
-  <si>
-    <t>Masselmani, Mrs. Fatima</t>
-  </si>
-  <si>
-    <t>Fynney, Mr. Joseph J</t>
-  </si>
-  <si>
-    <t>Beesley, Mr. Lawrence</t>
-  </si>
-  <si>
-    <t>McGowan, Miss. Anna "Annie"</t>
-  </si>
-  <si>
-    <t>Sloper, Mr. William Thompson</t>
-  </si>
-  <si>
-    <t>Palsson, Miss. Torborg Danira</t>
-  </si>
-  <si>
-    <t>Asplund, Mrs. Carl Oscar (Selma Augusta Emilia Johansson)</t>
-  </si>
-  <si>
-    <t>Emir, Mr. Farred Chehab</t>
-  </si>
-  <si>
-    <t>Fortune, Mr. Charles Alexander</t>
-  </si>
-  <si>
-    <t>O'Dwyer, Miss. Ellen "Nellie"</t>
-  </si>
-  <si>
-    <t>Todoroff, Mr. Lalio</t>
-  </si>
-  <si>
-    <t>Uruchurtu, Don. Manuel E</t>
-  </si>
-  <si>
-    <t>Spencer, Mrs. William Augustus (Marie Eugenie)</t>
-  </si>
-  <si>
-    <t>Glynn, Miss. Mary Agatha</t>
-  </si>
-  <si>
-    <t>Wheadon, Mr. Edward H</t>
-  </si>
-  <si>
-    <t>Meyer, Mr. Edgar Joseph</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Laina</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Rut</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Adolfina</t>
+  </si>
+  <si>
+    <t>Hewlett</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Fatima</t>
   </si>
 </sst>
 </file>
@@ -948,30 +903,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -993,10 +942,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -1007,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -1021,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -1035,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -1049,10 +998,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,10 +1012,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>54</v>
@@ -1074,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1088,10 +1040,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -1102,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -1116,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1130,10 +1082,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>58</v>
@@ -1144,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -1158,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>39</v>
@@ -1172,10 +1124,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -1186,10 +1138,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>55</v>
@@ -1200,10 +1152,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1214,10 +1166,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,10 +1180,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>31</v>
@@ -1239,205 +1194,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="D21">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
